--- a/inventario-loja.xlsx
+++ b/inventario-loja.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="lista de produtos " sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,6 +43,12 @@
       <color theme="1"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -881,20 +887,20 @@
   <dimension ref="A1:E566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E562" sqref="E562"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H493" sqref="H493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="18.33203125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="56.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="18.33203125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="16.44140625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="18.5546875" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="9.109375" customWidth="1" style="1" min="6" max="16"/>
-    <col width="9.109375" customWidth="1" style="2" min="17" max="18"/>
-    <col width="9.109375" customWidth="1" style="2" min="19" max="16384"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="56.28515625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="1" min="6" max="16"/>
+    <col width="9.140625" customWidth="1" style="2" min="17" max="19"/>
+    <col width="9.140625" customWidth="1" style="2" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -943,7 +949,7 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -989,7 +995,7 @@
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1018,7 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1087,7 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1133,7 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1148,8 +1154,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E11" s="9" t="n">
-        <v>1</v>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1169,8 +1177,10 @@
           <t>4,00</t>
         </is>
       </c>
-      <c r="E12" s="9" t="n">
-        <v>10</v>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1190,8 +1200,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E13" s="9" t="n">
-        <v>39</v>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1211,8 +1223,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E14" s="9" t="n">
-        <v>13</v>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1232,8 +1246,10 @@
           <t>2,70</t>
         </is>
       </c>
-      <c r="E15" s="9" t="n">
-        <v>24</v>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1253,8 +1269,10 @@
           <t>10,90</t>
         </is>
       </c>
-      <c r="E16" s="9" t="n">
-        <v>7</v>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1276,7 +1294,7 @@
       </c>
       <c r="E17" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1317,7 @@
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1320,8 +1338,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E19" s="9" t="n">
-        <v>1</v>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1341,8 +1361,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>47</v>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1362,8 +1384,10 @@
           <t>2,00</t>
         </is>
       </c>
-      <c r="E21" s="9" t="n">
-        <v>80</v>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1383,8 +1407,10 @@
           <t>11,50</t>
         </is>
       </c>
-      <c r="E22" s="9" t="n">
-        <v>4</v>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1404,8 +1430,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E23" s="9" t="n">
-        <v>8</v>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1425,8 +1453,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E24" s="9" t="n">
-        <v>11</v>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1446,8 +1476,10 @@
           <t>14,50</t>
         </is>
       </c>
-      <c r="E25" s="9" t="n">
-        <v>2</v>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1469,7 +1501,7 @@
       </c>
       <c r="E26" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1524,7 @@
       </c>
       <c r="E27" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1547,7 @@
       </c>
       <c r="E28" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1570,7 @@
       </c>
       <c r="E29" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1593,7 @@
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1616,7 @@
       </c>
       <c r="E31" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1639,7 @@
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1662,7 @@
       </c>
       <c r="E33" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1685,7 @@
       </c>
       <c r="E34" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1708,7 @@
       </c>
       <c r="E35" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1731,7 @@
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1754,7 @@
       </c>
       <c r="E37" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1777,7 @@
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1800,7 @@
       </c>
       <c r="E39" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1823,7 @@
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1846,7 @@
       </c>
       <c r="E41" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1869,7 @@
       </c>
       <c r="E42" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1892,7 @@
       </c>
       <c r="E43" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1915,7 @@
       </c>
       <c r="E44" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1938,7 @@
       </c>
       <c r="E45" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1961,7 @@
       </c>
       <c r="E46" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1984,7 @@
       </c>
       <c r="E47" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1975,7 +2007,7 @@
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1998,7 +2030,7 @@
       </c>
       <c r="E49" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2053,7 @@
       </c>
       <c r="E50" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2076,7 @@
       </c>
       <c r="E51" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2099,7 @@
       </c>
       <c r="E52" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2088,8 +2120,10 @@
           <t>2,70</t>
         </is>
       </c>
-      <c r="E53" s="9" t="n">
-        <v>12</v>
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2109,8 +2143,10 @@
           <t>2,85</t>
         </is>
       </c>
-      <c r="E54" s="9" t="n">
-        <v>6</v>
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2132,7 +2168,7 @@
       </c>
       <c r="E55" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2153,8 +2189,10 @@
           <t>2,70</t>
         </is>
       </c>
-      <c r="E56" s="9" t="n">
-        <v>5</v>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2174,8 +2212,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E57" s="9" t="n">
-        <v>17</v>
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2220,7 +2260,7 @@
       </c>
       <c r="E59" s="9" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2283,7 @@
       </c>
       <c r="E60" s="9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2306,7 @@
       </c>
       <c r="E61" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2329,7 @@
       </c>
       <c r="E62" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2352,7 @@
       </c>
       <c r="E63" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2375,7 @@
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2398,7 @@
       </c>
       <c r="E65" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2421,7 @@
       </c>
       <c r="E66" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2444,7 @@
       </c>
       <c r="E67" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2467,7 @@
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2490,7 @@
       </c>
       <c r="E69" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2513,7 @@
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2536,7 @@
       </c>
       <c r="E71" s="9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2559,7 @@
       </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2582,7 @@
       </c>
       <c r="E73" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2605,7 @@
       </c>
       <c r="E74" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2628,7 @@
       </c>
       <c r="E75" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2697,7 @@
       </c>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2720,7 @@
       </c>
       <c r="E79" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2743,7 @@
       </c>
       <c r="E80" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2766,7 @@
       </c>
       <c r="E81" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2789,7 @@
       </c>
       <c r="E82" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2812,7 @@
       </c>
       <c r="E83" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2835,7 @@
       </c>
       <c r="E84" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2858,7 @@
       </c>
       <c r="E85" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2881,7 @@
       </c>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2904,7 @@
       </c>
       <c r="E87" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2927,7 @@
       </c>
       <c r="E88" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2973,7 @@
       </c>
       <c r="E90" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2996,7 @@
       </c>
       <c r="E91" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2979,7 +3019,7 @@
       </c>
       <c r="E92" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3042,7 @@
       </c>
       <c r="E93" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3065,7 @@
       </c>
       <c r="E94" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3088,7 @@
       </c>
       <c r="E95" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3111,7 @@
       </c>
       <c r="E96" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3134,7 @@
       </c>
       <c r="E97" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3157,7 @@
       </c>
       <c r="E98" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3180,7 @@
       </c>
       <c r="E99" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3203,7 @@
       </c>
       <c r="E100" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3226,7 @@
       </c>
       <c r="E101" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3249,7 @@
       </c>
       <c r="E102" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3272,7 @@
       </c>
       <c r="E103" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3253,8 +3293,10 @@
           <t>12,00</t>
         </is>
       </c>
-      <c r="E104" s="9" t="n">
-        <v>3</v>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -3274,8 +3316,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E105" s="9" t="n">
-        <v>15</v>
+      <c r="E105" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3295,8 +3339,10 @@
           <t>12,00</t>
         </is>
       </c>
-      <c r="E106" s="9" t="n">
-        <v>4</v>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -3318,7 +3364,7 @@
       </c>
       <c r="E107" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3387,7 @@
       </c>
       <c r="E108" s="9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3410,7 @@
       </c>
       <c r="E109" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3433,7 @@
       </c>
       <c r="E110" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3456,7 @@
       </c>
       <c r="E111" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3479,7 @@
       </c>
       <c r="E112" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3502,7 @@
       </c>
       <c r="E113" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3525,7 @@
       </c>
       <c r="E114" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3548,7 @@
       </c>
       <c r="E115" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3571,7 @@
       </c>
       <c r="E116" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3594,7 @@
       </c>
       <c r="E117" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3617,7 @@
       </c>
       <c r="E118" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3640,7 @@
       </c>
       <c r="E119" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3663,7 @@
       </c>
       <c r="E120" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3638,8 +3684,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E121" s="9" t="n">
-        <v>12</v>
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -3659,8 +3707,10 @@
           <t>3,75</t>
         </is>
       </c>
-      <c r="E122" s="9" t="n">
-        <v>41</v>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -3680,8 +3730,10 @@
           <t>7,00</t>
         </is>
       </c>
-      <c r="E123" s="9" t="n">
-        <v>28</v>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -3701,8 +3753,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E124" s="9" t="n">
-        <v>14</v>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -3722,8 +3776,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E125" s="9" t="n">
-        <v>32</v>
+      <c r="E125" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -3743,8 +3799,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E126" s="9" t="n">
-        <v>87</v>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -3764,8 +3822,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E127" s="9" t="n">
-        <v>47</v>
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -3785,8 +3845,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E128" s="9" t="n">
-        <v>13</v>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -3806,8 +3868,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E129" s="9" t="n">
-        <v>40</v>
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -3827,8 +3891,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E130" s="9" t="n">
-        <v>58</v>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -3848,8 +3914,10 @@
           <t>7,00</t>
         </is>
       </c>
-      <c r="E131" s="9" t="n">
-        <v>15</v>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -3869,8 +3937,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E132" s="9" t="n">
-        <v>60</v>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -3890,8 +3960,10 @@
           <t>4,00</t>
         </is>
       </c>
-      <c r="E133" s="9" t="n">
-        <v>48</v>
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -3911,8 +3983,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E134" s="9" t="n">
-        <v>36</v>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -3932,8 +4006,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E135" s="9" t="n">
-        <v>12</v>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -3955,7 +4031,7 @@
       </c>
       <c r="E136" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3978,7 +4054,7 @@
       </c>
       <c r="E137" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4077,7 @@
       </c>
       <c r="E138" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4100,7 @@
       </c>
       <c r="E139" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4123,7 @@
       </c>
       <c r="E140" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4146,7 @@
       </c>
       <c r="E141" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4169,7 @@
       </c>
       <c r="E142" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4192,7 @@
       </c>
       <c r="E143" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4215,7 @@
       </c>
       <c r="E144" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4238,7 @@
       </c>
       <c r="E145" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4261,7 @@
       </c>
       <c r="E146" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4284,7 @@
       </c>
       <c r="E147" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4330,7 @@
       </c>
       <c r="E149" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4353,7 @@
       </c>
       <c r="E150" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4376,7 @@
       </c>
       <c r="E151" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4399,7 @@
       </c>
       <c r="E152" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4422,7 @@
       </c>
       <c r="E153" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4445,7 @@
       </c>
       <c r="E154" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4468,7 @@
       </c>
       <c r="E155" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4491,7 @@
       </c>
       <c r="E156" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4514,7 @@
       </c>
       <c r="E157" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4537,7 @@
       </c>
       <c r="E158" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4482,8 +4558,10 @@
           <t>18,90</t>
         </is>
       </c>
-      <c r="E159" s="9" t="n">
-        <v>1</v>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -4505,7 +4583,7 @@
       </c>
       <c r="E160" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4606,7 @@
       </c>
       <c r="E161" s="9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4549,8 +4627,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E162" s="9" t="n">
-        <v>27</v>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -4570,8 +4650,10 @@
           <t>25,50</t>
         </is>
       </c>
-      <c r="E163" s="9" t="n">
-        <v>2</v>
+      <c r="E163" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -4591,8 +4673,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E164" s="9" t="n">
-        <v>6</v>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -4612,8 +4696,10 @@
           <t>16,00</t>
         </is>
       </c>
-      <c r="E165" s="9" t="n">
-        <v>1</v>
+      <c r="E165" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -4635,7 +4721,7 @@
       </c>
       <c r="E166" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4744,7 @@
       </c>
       <c r="E167" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4767,7 @@
       </c>
       <c r="E168" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4790,7 @@
       </c>
       <c r="E169" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4813,7 @@
       </c>
       <c r="E170" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4836,7 @@
       </c>
       <c r="E171" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4859,7 @@
       </c>
       <c r="E172" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4882,7 @@
       </c>
       <c r="E173" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4905,7 @@
       </c>
       <c r="E174" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4840,8 +4926,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E175" s="9" t="n">
-        <v>32</v>
+      <c r="E175" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -4863,7 +4951,7 @@
       </c>
       <c r="E176" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4974,7 @@
       </c>
       <c r="E177" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4997,7 @@
       </c>
       <c r="E178" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4932,7 +5020,7 @@
       </c>
       <c r="E179" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4955,7 +5043,7 @@
       </c>
       <c r="E180" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -4978,7 +5066,7 @@
       </c>
       <c r="E181" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5089,7 @@
       </c>
       <c r="E182" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5135,7 @@
       </c>
       <c r="E184" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5158,7 @@
       </c>
       <c r="E185" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5181,7 @@
       </c>
       <c r="E186" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5204,7 @@
       </c>
       <c r="E187" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5227,7 @@
       </c>
       <c r="E188" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5250,7 @@
       </c>
       <c r="E189" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5273,7 @@
       </c>
       <c r="E190" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5208,7 +5296,7 @@
       </c>
       <c r="E191" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5319,7 @@
       </c>
       <c r="E192" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5342,7 @@
       </c>
       <c r="E193" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5275,8 +5363,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E194" s="9" t="n">
-        <v>21</v>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -5296,8 +5386,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E195" s="9" t="n">
-        <v>6</v>
+      <c r="E195" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -5317,8 +5409,10 @@
           <t>9,50</t>
         </is>
       </c>
-      <c r="E196" s="9" t="n">
-        <v>6</v>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -5338,8 +5432,10 @@
           <t>9,50</t>
         </is>
       </c>
-      <c r="E197" s="9" t="n">
-        <v>9</v>
+      <c r="E197" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -5359,8 +5455,10 @@
           <t>9,50</t>
         </is>
       </c>
-      <c r="E198" s="9" t="n">
-        <v>6</v>
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -5380,8 +5478,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E199" s="9" t="n">
-        <v>1</v>
+      <c r="E199" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -5401,8 +5501,10 @@
           <t>8,90</t>
         </is>
       </c>
-      <c r="E200" s="9" t="n">
-        <v>4</v>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -5424,7 +5526,7 @@
       </c>
       <c r="E201" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5549,7 @@
       </c>
       <c r="E202" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5470,7 +5572,7 @@
       </c>
       <c r="E203" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5595,7 @@
       </c>
       <c r="E204" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5618,7 @@
       </c>
       <c r="E205" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5641,7 @@
       </c>
       <c r="E206" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5664,7 @@
       </c>
       <c r="E207" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5687,7 @@
       </c>
       <c r="E208" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5710,7 @@
       </c>
       <c r="E209" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5733,7 @@
       </c>
       <c r="E210" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5779,7 @@
       </c>
       <c r="E212" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5700,7 +5802,7 @@
       </c>
       <c r="E213" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5825,7 @@
       </c>
       <c r="E214" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5848,7 @@
       </c>
       <c r="E215" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5871,7 @@
       </c>
       <c r="E216" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5894,7 @@
       </c>
       <c r="E217" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5917,7 @@
       </c>
       <c r="E218" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5940,7 @@
       </c>
       <c r="E219" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5963,7 @@
       </c>
       <c r="E220" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5884,7 +5986,7 @@
       </c>
       <c r="E221" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5907,7 +6009,7 @@
       </c>
       <c r="E222" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5930,7 +6032,7 @@
       </c>
       <c r="E223" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5953,7 +6055,7 @@
       </c>
       <c r="E224" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5976,7 +6078,7 @@
       </c>
       <c r="E225" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5999,7 +6101,7 @@
       </c>
       <c r="E226" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6124,7 @@
       </c>
       <c r="E227" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6147,7 @@
       </c>
       <c r="E228" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6170,7 @@
       </c>
       <c r="E229" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6193,7 @@
       </c>
       <c r="E230" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6216,7 @@
       </c>
       <c r="E231" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6239,7 @@
       </c>
       <c r="E232" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6262,7 @@
       </c>
       <c r="E233" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6285,7 @@
       </c>
       <c r="E234" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6308,7 @@
       </c>
       <c r="E235" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6331,7 @@
       </c>
       <c r="E236" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6377,7 @@
       </c>
       <c r="E238" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6400,7 @@
       </c>
       <c r="E239" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6423,7 @@
       </c>
       <c r="E240" s="9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6344,7 +6446,7 @@
       </c>
       <c r="E241" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6469,7 @@
       </c>
       <c r="E242" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6492,7 @@
       </c>
       <c r="E243" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6515,7 @@
       </c>
       <c r="E244" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6538,7 @@
       </c>
       <c r="E245" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6561,7 @@
       </c>
       <c r="E246" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6584,7 @@
       </c>
       <c r="E247" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6503,8 +6605,10 @@
           <t>5,50</t>
         </is>
       </c>
-      <c r="E248" s="9" t="n">
-        <v>1</v>
+      <c r="E248" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -6524,8 +6628,10 @@
           <t>5,50</t>
         </is>
       </c>
-      <c r="E249" s="9" t="n">
-        <v>2</v>
+      <c r="E249" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -6547,7 +6653,7 @@
       </c>
       <c r="E250" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6676,7 @@
       </c>
       <c r="E251" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6699,7 @@
       </c>
       <c r="E252" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6722,7 @@
       </c>
       <c r="E253" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6745,7 @@
       </c>
       <c r="E254" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6660,8 +6766,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E255" s="9" t="n">
-        <v>8</v>
+      <c r="E255" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -6681,8 +6789,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E256" s="9" t="n">
-        <v>3</v>
+      <c r="E256" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -6702,8 +6812,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E257" s="9" t="n">
-        <v>11</v>
+      <c r="E257" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -6725,7 +6837,7 @@
       </c>
       <c r="E258" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6748,7 +6860,7 @@
       </c>
       <c r="E259" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6769,8 +6881,10 @@
           <t>3,30</t>
         </is>
       </c>
-      <c r="E260" s="9" t="n">
-        <v>8</v>
+      <c r="E260" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -6792,7 +6906,7 @@
       </c>
       <c r="E261" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6815,7 +6929,7 @@
       </c>
       <c r="E262" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6952,7 @@
       </c>
       <c r="E263" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6975,7 @@
       </c>
       <c r="E264" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6998,7 @@
       </c>
       <c r="E265" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6905,8 +7019,10 @@
           <t>7,50</t>
         </is>
       </c>
-      <c r="E266" s="9" t="n">
-        <v>3</v>
+      <c r="E266" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -6926,8 +7042,10 @@
           <t>3,80</t>
         </is>
       </c>
-      <c r="E267" s="9" t="n">
-        <v>17</v>
+      <c r="E267" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -6949,7 +7067,7 @@
       </c>
       <c r="E268" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6995,7 +7113,7 @@
       </c>
       <c r="E270" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7018,7 +7136,7 @@
       </c>
       <c r="E271" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7159,7 @@
       </c>
       <c r="E272" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7182,7 @@
       </c>
       <c r="E273" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7205,7 @@
       </c>
       <c r="E274" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7251,7 @@
       </c>
       <c r="E276" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7274,7 @@
       </c>
       <c r="E277" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7297,7 @@
       </c>
       <c r="E278" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7320,7 @@
       </c>
       <c r="E279" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7343,7 @@
       </c>
       <c r="E280" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7366,7 @@
       </c>
       <c r="E281" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7389,7 @@
       </c>
       <c r="E282" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7294,7 +7412,7 @@
       </c>
       <c r="E283" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7435,7 @@
       </c>
       <c r="E284" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7458,7 @@
       </c>
       <c r="E285" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7481,7 @@
       </c>
       <c r="E286" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7504,7 @@
       </c>
       <c r="E287" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7527,7 @@
       </c>
       <c r="E288" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7432,7 +7550,7 @@
       </c>
       <c r="E289" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7573,7 @@
       </c>
       <c r="E290" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7478,7 +7596,7 @@
       </c>
       <c r="E291" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7619,7 @@
       </c>
       <c r="E292" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7642,7 @@
       </c>
       <c r="E293" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7665,7 @@
       </c>
       <c r="E294" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7688,7 @@
       </c>
       <c r="E295" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7711,7 @@
       </c>
       <c r="E296" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7734,7 @@
       </c>
       <c r="E297" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7757,7 @@
       </c>
       <c r="E298" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7780,7 @@
       </c>
       <c r="E299" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7803,7 @@
       </c>
       <c r="E300" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7826,7 @@
       </c>
       <c r="E301" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7849,7 @@
       </c>
       <c r="E302" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7872,7 @@
       </c>
       <c r="E303" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7895,7 @@
       </c>
       <c r="E304" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7918,7 @@
       </c>
       <c r="E305" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7823,7 +7941,7 @@
       </c>
       <c r="E306" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7846,7 +7964,7 @@
       </c>
       <c r="E307" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7987,7 @@
       </c>
       <c r="E308" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7892,7 +8010,7 @@
       </c>
       <c r="E309" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7915,7 +8033,7 @@
       </c>
       <c r="E310" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7938,7 +8056,7 @@
       </c>
       <c r="E311" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7961,7 +8079,7 @@
       </c>
       <c r="E312" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7984,7 +8102,7 @@
       </c>
       <c r="E313" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8125,7 @@
       </c>
       <c r="E314" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8030,7 +8148,7 @@
       </c>
       <c r="E315" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8171,7 @@
       </c>
       <c r="E316" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8074,8 +8192,10 @@
           <t>7,50</t>
         </is>
       </c>
-      <c r="E317" s="9" t="n">
-        <v>3</v>
+      <c r="E317" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -8097,7 +8217,7 @@
       </c>
       <c r="E318" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8240,7 @@
       </c>
       <c r="E319" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8263,7 @@
       </c>
       <c r="E320" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8286,7 @@
       </c>
       <c r="E321" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8309,7 @@
       </c>
       <c r="E322" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8212,7 +8332,7 @@
       </c>
       <c r="E323" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8355,7 @@
       </c>
       <c r="E324" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8378,7 @@
       </c>
       <c r="E325" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8401,7 @@
       </c>
       <c r="E326" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8424,7 @@
       </c>
       <c r="E327" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8327,7 +8447,7 @@
       </c>
       <c r="E328" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8470,7 @@
       </c>
       <c r="E329" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8493,7 @@
       </c>
       <c r="E330" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8396,7 +8516,7 @@
       </c>
       <c r="E331" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8539,7 @@
       </c>
       <c r="E332" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8562,7 @@
       </c>
       <c r="E333" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8585,7 @@
       </c>
       <c r="E334" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8608,7 @@
       </c>
       <c r="E335" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8631,7 @@
       </c>
       <c r="E336" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8654,7 @@
       </c>
       <c r="E337" s="9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8677,7 @@
       </c>
       <c r="E338" s="9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8723,7 @@
       </c>
       <c r="E340" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8746,7 @@
       </c>
       <c r="E341" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8769,7 @@
       </c>
       <c r="E342" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8672,7 +8792,7 @@
       </c>
       <c r="E343" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8815,7 @@
       </c>
       <c r="E344" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8838,7 @@
       </c>
       <c r="E345" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8861,7 @@
       </c>
       <c r="E346" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8764,7 +8884,7 @@
       </c>
       <c r="E347" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8930,7 @@
       </c>
       <c r="E349" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8953,7 @@
       </c>
       <c r="E350" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8976,7 @@
       </c>
       <c r="E351" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8999,7 @@
       </c>
       <c r="E352" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8902,7 +9022,7 @@
       </c>
       <c r="E353" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8925,7 +9045,7 @@
       </c>
       <c r="E354" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8948,7 +9068,7 @@
       </c>
       <c r="E355" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8971,7 +9091,7 @@
       </c>
       <c r="E356" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8994,7 +9114,7 @@
       </c>
       <c r="E357" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9137,7 @@
       </c>
       <c r="E358" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9160,7 @@
       </c>
       <c r="E359" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9183,7 @@
       </c>
       <c r="E360" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9206,7 @@
       </c>
       <c r="E361" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9109,7 +9229,7 @@
       </c>
       <c r="E362" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9252,7 @@
       </c>
       <c r="E363" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9155,7 +9275,7 @@
       </c>
       <c r="E364" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9178,7 +9298,7 @@
       </c>
       <c r="E365" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9321,7 @@
       </c>
       <c r="E366" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9344,7 @@
       </c>
       <c r="E367" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9247,7 +9367,7 @@
       </c>
       <c r="E368" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9390,7 @@
       </c>
       <c r="E369" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9413,7 @@
       </c>
       <c r="E370" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9436,7 @@
       </c>
       <c r="E371" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9459,7 @@
       </c>
       <c r="E372" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9482,7 @@
       </c>
       <c r="E373" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9505,7 @@
       </c>
       <c r="E374" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9528,7 @@
       </c>
       <c r="E375" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9551,7 @@
       </c>
       <c r="E376" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9574,7 @@
       </c>
       <c r="E377" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9597,7 @@
       </c>
       <c r="E378" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9620,7 @@
       </c>
       <c r="E379" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9523,7 +9643,7 @@
       </c>
       <c r="E380" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9666,7 @@
       </c>
       <c r="E381" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9689,7 @@
       </c>
       <c r="E382" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9712,7 @@
       </c>
       <c r="E383" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9735,7 @@
       </c>
       <c r="E384" s="9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9758,7 @@
       </c>
       <c r="E385" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9781,7 @@
       </c>
       <c r="E386" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9804,7 @@
       </c>
       <c r="E387" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9827,7 @@
       </c>
       <c r="E388" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9850,7 @@
       </c>
       <c r="E389" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9873,7 @@
       </c>
       <c r="E390" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9896,7 @@
       </c>
       <c r="E391" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9799,7 +9919,7 @@
       </c>
       <c r="E392" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9820,8 +9940,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E393" s="9" t="n">
-        <v>7</v>
+      <c r="E393" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="394">
@@ -9843,7 +9965,7 @@
       </c>
       <c r="E394" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9864,8 +9986,10 @@
           <t>4,50</t>
         </is>
       </c>
-      <c r="E395" s="9" t="n">
-        <v>1</v>
+      <c r="E395" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="396">
@@ -9887,7 +10011,7 @@
       </c>
       <c r="E396" s="9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9910,7 +10034,7 @@
       </c>
       <c r="E397" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9933,7 +10057,7 @@
       </c>
       <c r="E398" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9956,7 +10080,7 @@
       </c>
       <c r="E399" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9979,7 +10103,7 @@
       </c>
       <c r="E400" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10002,7 +10126,7 @@
       </c>
       <c r="E401" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10025,7 +10149,7 @@
       </c>
       <c r="E402" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10172,7 @@
       </c>
       <c r="E403" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10195,7 @@
       </c>
       <c r="E404" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10094,7 +10218,7 @@
       </c>
       <c r="E405" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10241,7 @@
       </c>
       <c r="E406" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10138,8 +10262,10 @@
           <t>2,00</t>
         </is>
       </c>
-      <c r="E407" s="9" t="n">
-        <v>12</v>
+      <c r="E407" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="408">
@@ -10159,8 +10285,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E408" s="9" t="n">
-        <v>15</v>
+      <c r="E408" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="409">
@@ -10182,7 +10310,7 @@
       </c>
       <c r="E409" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10203,8 +10331,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E410" s="9" t="n">
-        <v>25</v>
+      <c r="E410" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="411">
@@ -10224,8 +10354,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E411" s="9" t="n">
-        <v>16</v>
+      <c r="E411" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="412">
@@ -10245,8 +10377,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E412" s="9" t="n">
-        <v>12</v>
+      <c r="E412" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="413">
@@ -10266,8 +10400,10 @@
           <t>4,00</t>
         </is>
       </c>
-      <c r="E413" s="9" t="n">
-        <v>21</v>
+      <c r="E413" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="414">
@@ -10287,8 +10423,10 @@
           <t>2,00</t>
         </is>
       </c>
-      <c r="E414" s="9" t="n">
-        <v>12</v>
+      <c r="E414" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="415">
@@ -10308,8 +10446,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E415" s="9" t="n">
-        <v>14</v>
+      <c r="E415" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="416">
@@ -10329,8 +10469,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E416" s="9" t="n">
-        <v>24</v>
+      <c r="E416" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="417">
@@ -10350,8 +10492,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E417" s="9" t="n">
-        <v>18</v>
+      <c r="E417" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="418">
@@ -10371,8 +10515,10 @@
           <t>2,00</t>
         </is>
       </c>
-      <c r="E418" s="9" t="n">
-        <v>10</v>
+      <c r="E418" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="419">
@@ -10392,8 +10538,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E419" s="9" t="n">
-        <v>11</v>
+      <c r="E419" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="420">
@@ -10413,8 +10561,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E420" s="9" t="n">
-        <v>13</v>
+      <c r="E420" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="421">
@@ -10434,8 +10584,10 @@
           <t>2,00</t>
         </is>
       </c>
-      <c r="E421" s="9" t="n">
-        <v>18</v>
+      <c r="E421" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="422">
@@ -10455,8 +10607,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E422" s="9" t="n">
-        <v>21</v>
+      <c r="E422" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="423">
@@ -10476,8 +10630,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E423" s="9" t="n">
-        <v>6</v>
+      <c r="E423" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="424">
@@ -10497,8 +10653,10 @@
           <t>2,00</t>
         </is>
       </c>
-      <c r="E424" s="9" t="n">
-        <v>5</v>
+      <c r="E424" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="425">
@@ -10518,8 +10676,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E425" s="9" t="n">
-        <v>13</v>
+      <c r="E425" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="426">
@@ -10539,8 +10699,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E426" s="9" t="n">
-        <v>6</v>
+      <c r="E426" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="427">
@@ -10562,7 +10724,7 @@
       </c>
       <c r="E427" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10583,8 +10745,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E428" s="9" t="n">
-        <v>11</v>
+      <c r="E428" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="429">
@@ -10604,8 +10768,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E429" s="9" t="n">
-        <v>19</v>
+      <c r="E429" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="430">
@@ -10625,8 +10791,10 @@
           <t>3,25</t>
         </is>
       </c>
-      <c r="E430" s="9" t="n">
-        <v>13</v>
+      <c r="E430" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="431">
@@ -10646,8 +10814,10 @@
           <t>4,00</t>
         </is>
       </c>
-      <c r="E431" s="9" t="n">
-        <v>8</v>
+      <c r="E431" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="432">
@@ -10667,8 +10837,10 @@
           <t>8,00</t>
         </is>
       </c>
-      <c r="E432" s="9" t="n">
-        <v>11</v>
+      <c r="E432" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="433">
@@ -10688,8 +10860,10 @@
           <t>8,00</t>
         </is>
       </c>
-      <c r="E433" s="9" t="n">
-        <v>5</v>
+      <c r="E433" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="434">
@@ -10709,8 +10883,10 @@
           <t>6,00</t>
         </is>
       </c>
-      <c r="E434" s="9" t="n">
-        <v>19</v>
+      <c r="E434" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="435">
@@ -10730,8 +10906,10 @@
           <t>9,50</t>
         </is>
       </c>
-      <c r="E435" s="9" t="n">
-        <v>8</v>
+      <c r="E435" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="436">
@@ -10751,8 +10929,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E436" s="9" t="n">
-        <v>7</v>
+      <c r="E436" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="437">
@@ -10772,8 +10952,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E437" s="9" t="n">
-        <v>7</v>
+      <c r="E437" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="438">
@@ -10793,8 +10975,10 @@
           <t>8,00</t>
         </is>
       </c>
-      <c r="E438" s="9" t="n">
-        <v>6</v>
+      <c r="E438" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="439">
@@ -10814,8 +10998,10 @@
           <t>3,25</t>
         </is>
       </c>
-      <c r="E439" s="9" t="n">
-        <v>10</v>
+      <c r="E439" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="440">
@@ -10835,8 +11021,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E440" s="9" t="n">
-        <v>19</v>
+      <c r="E440" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="441">
@@ -10858,7 +11046,7 @@
       </c>
       <c r="E441" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10881,7 +11069,7 @@
       </c>
       <c r="E442" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10904,7 +11092,7 @@
       </c>
       <c r="E443" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10927,7 +11115,7 @@
       </c>
       <c r="E444" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10950,7 +11138,7 @@
       </c>
       <c r="E445" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10973,7 +11161,7 @@
       </c>
       <c r="E446" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10996,7 +11184,7 @@
       </c>
       <c r="E447" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11019,7 +11207,7 @@
       </c>
       <c r="E448" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11042,7 +11230,7 @@
       </c>
       <c r="E449" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11065,7 +11253,7 @@
       </c>
       <c r="E450" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11276,7 @@
       </c>
       <c r="E451" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11299,7 @@
       </c>
       <c r="E452" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11134,7 +11322,7 @@
       </c>
       <c r="E453" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11157,7 +11345,7 @@
       </c>
       <c r="E454" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11368,7 @@
       </c>
       <c r="E455" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11203,7 +11391,7 @@
       </c>
       <c r="E456" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11414,7 @@
       </c>
       <c r="E457" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11437,7 @@
       </c>
       <c r="E458" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11272,7 +11460,7 @@
       </c>
       <c r="E459" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11295,7 +11483,7 @@
       </c>
       <c r="E460" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11506,7 @@
       </c>
       <c r="E461" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11529,7 @@
       </c>
       <c r="E462" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11364,7 +11552,7 @@
       </c>
       <c r="E463" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11575,7 @@
       </c>
       <c r="E464" s="9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11410,7 +11598,7 @@
       </c>
       <c r="E465" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11433,7 +11621,7 @@
       </c>
       <c r="E466" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11456,7 +11644,7 @@
       </c>
       <c r="E467" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11502,7 +11690,7 @@
       </c>
       <c r="E469" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11525,7 +11713,7 @@
       </c>
       <c r="E470" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11759,7 @@
       </c>
       <c r="E472" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11594,7 +11782,7 @@
       </c>
       <c r="E473" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11617,7 +11805,7 @@
       </c>
       <c r="E474" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11640,7 +11828,7 @@
       </c>
       <c r="E475" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11663,7 +11851,7 @@
       </c>
       <c r="E476" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11686,7 +11874,7 @@
       </c>
       <c r="E477" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11709,7 +11897,7 @@
       </c>
       <c r="E478" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11732,7 +11920,7 @@
       </c>
       <c r="E479" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11755,7 +11943,7 @@
       </c>
       <c r="E480" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11778,7 +11966,7 @@
       </c>
       <c r="E481" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11801,7 +11989,7 @@
       </c>
       <c r="E482" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11824,7 +12012,7 @@
       </c>
       <c r="E483" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11845,8 +12033,10 @@
           <t>15,00</t>
         </is>
       </c>
-      <c r="E484" s="9" t="n">
-        <v>3</v>
+      <c r="E484" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="485">
@@ -11868,7 +12058,7 @@
       </c>
       <c r="E485" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11891,7 +12081,7 @@
       </c>
       <c r="E486" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11914,7 +12104,7 @@
       </c>
       <c r="E487" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11935,8 +12125,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E488" s="9" t="n">
-        <v>24</v>
+      <c r="E488" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="489">
@@ -11956,8 +12148,10 @@
           <t>1,00</t>
         </is>
       </c>
-      <c r="E489" s="9" t="n">
-        <v>13</v>
+      <c r="E489" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="490">
@@ -11977,8 +12171,10 @@
           <t>1,30</t>
         </is>
       </c>
-      <c r="E490" s="9" t="n">
-        <v>11</v>
+      <c r="E490" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="491">
@@ -11998,8 +12194,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E491" s="9" t="n">
-        <v>19</v>
+      <c r="E491" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="492">
@@ -12019,8 +12217,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E492" s="9" t="n">
-        <v>7</v>
+      <c r="E492" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="493">
@@ -12040,8 +12240,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E493" s="9" t="n">
-        <v>1</v>
+      <c r="E493" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="494">
@@ -12061,8 +12263,10 @@
           <t>5,50</t>
         </is>
       </c>
-      <c r="E494" s="9" t="n">
-        <v>10</v>
+      <c r="E494" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="495">
@@ -12082,8 +12286,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E495" s="9" t="n">
-        <v>7</v>
+      <c r="E495" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="496">
@@ -12103,8 +12309,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E496" s="9" t="n">
-        <v>12</v>
+      <c r="E496" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="497">
@@ -12124,8 +12332,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E497" s="9" t="n">
-        <v>12</v>
+      <c r="E497" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="498">
@@ -12145,8 +12355,10 @@
           <t>8,25</t>
         </is>
       </c>
-      <c r="E498" s="9" t="n">
-        <v>2</v>
+      <c r="E498" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="499">
@@ -12166,8 +12378,10 @@
           <t>1,80</t>
         </is>
       </c>
-      <c r="E499" s="9" t="n">
-        <v>7</v>
+      <c r="E499" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="500">
@@ -12187,8 +12401,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E500" s="9" t="n">
-        <v>19</v>
+      <c r="E500" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="501">
@@ -12208,8 +12424,10 @@
           <t>1,00</t>
         </is>
       </c>
-      <c r="E501" s="9" t="n">
-        <v>15</v>
+      <c r="E501" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="502">
@@ -12229,8 +12447,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E502" s="9" t="n">
-        <v>11</v>
+      <c r="E502" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="503">
@@ -12250,8 +12470,10 @@
           <t>5,50</t>
         </is>
       </c>
-      <c r="E503" s="9" t="n">
-        <v>8</v>
+      <c r="E503" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="504">
@@ -12271,8 +12493,10 @@
           <t>1,5</t>
         </is>
       </c>
-      <c r="E504" s="9" t="n">
-        <v>12</v>
+      <c r="E504" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="505">
@@ -12292,8 +12516,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E505" s="9" t="n">
-        <v>25</v>
+      <c r="E505" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="506">
@@ -12313,8 +12539,10 @@
           <t>1,00</t>
         </is>
       </c>
-      <c r="E506" s="9" t="n">
-        <v>17</v>
+      <c r="E506" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="507">
@@ -12334,8 +12562,10 @@
           <t>2,50</t>
         </is>
       </c>
-      <c r="E507" s="9" t="n">
-        <v>32</v>
+      <c r="E507" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="508">
@@ -12355,8 +12585,10 @@
           <t>1,80</t>
         </is>
       </c>
-      <c r="E508" s="9" t="n">
-        <v>1</v>
+      <c r="E508" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="509">
@@ -12376,8 +12608,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E509" s="9" t="n">
-        <v>4</v>
+      <c r="E509" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="510">
@@ -12397,8 +12631,10 @@
           <t>8,25</t>
         </is>
       </c>
-      <c r="E510" s="9" t="n">
-        <v>1</v>
+      <c r="E510" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="511">
@@ -12418,8 +12654,10 @@
           <t>1,80</t>
         </is>
       </c>
-      <c r="E511" s="9" t="n">
-        <v>6</v>
+      <c r="E511" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="512">
@@ -12439,8 +12677,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E512" s="9" t="n">
-        <v>21</v>
+      <c r="E512" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="513">
@@ -12460,8 +12700,10 @@
           <t>1,00</t>
         </is>
       </c>
-      <c r="E513" s="9" t="n">
-        <v>18</v>
+      <c r="E513" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="514">
@@ -12481,8 +12723,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E514" s="9" t="n">
-        <v>23</v>
+      <c r="E514" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="515">
@@ -12502,8 +12746,10 @@
           <t>8,25</t>
         </is>
       </c>
-      <c r="E515" s="9" t="n">
-        <v>5</v>
+      <c r="E515" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="516">
@@ -12523,8 +12769,10 @@
           <t>5,85</t>
         </is>
       </c>
-      <c r="E516" s="9" t="n">
-        <v>3</v>
+      <c r="E516" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="517">
@@ -12544,8 +12792,10 @@
           <t>1,80</t>
         </is>
       </c>
-      <c r="E517" s="9" t="n">
-        <v>3</v>
+      <c r="E517" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="518">
@@ -12565,8 +12815,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E518" s="9" t="n">
-        <v>47</v>
+      <c r="E518" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="519">
@@ -12586,8 +12838,10 @@
           <t>17,00</t>
         </is>
       </c>
-      <c r="E519" s="9" t="n">
-        <v>3</v>
+      <c r="E519" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="520">
@@ -12607,8 +12861,10 @@
           <t>1,50</t>
         </is>
       </c>
-      <c r="E520" s="9" t="n">
-        <v>9</v>
+      <c r="E520" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="521">
@@ -12628,8 +12884,10 @@
           <t>5,50</t>
         </is>
       </c>
-      <c r="E521" s="9" t="n">
-        <v>7</v>
+      <c r="E521" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="522">
@@ -12649,8 +12907,10 @@
           <t>5,00</t>
         </is>
       </c>
-      <c r="E522" s="9" t="n">
-        <v>11</v>
+      <c r="E522" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="523">
@@ -12670,8 +12930,10 @@
           <t>3,50</t>
         </is>
       </c>
-      <c r="E523" s="9" t="n">
-        <v>17</v>
+      <c r="E523" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="524">
@@ -12691,8 +12953,10 @@
           <t>8,25</t>
         </is>
       </c>
-      <c r="E524" s="9" t="n">
-        <v>2</v>
+      <c r="E524" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="525">
@@ -12712,8 +12976,10 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E525" s="9" t="n">
-        <v>9</v>
+      <c r="E525" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="526">
@@ -12733,8 +12999,10 @@
           <t>5,85</t>
         </is>
       </c>
-      <c r="E526" s="9" t="n">
-        <v>2</v>
+      <c r="E526" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="527">
@@ -12754,8 +13022,10 @@
           <t>1,80</t>
         </is>
       </c>
-      <c r="E527" s="9" t="n">
-        <v>4</v>
+      <c r="E527" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="528">
@@ -12775,8 +13045,10 @@
           <t>1,35</t>
         </is>
       </c>
-      <c r="E528" s="9" t="n">
-        <v>16</v>
+      <c r="E528" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="529">
@@ -12796,8 +13068,10 @@
           <t>1,00</t>
         </is>
       </c>
-      <c r="E529" s="9" t="n">
-        <v>16</v>
+      <c r="E529" s="9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="530">
@@ -12819,7 +13093,7 @@
       </c>
       <c r="E530" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12842,7 +13116,7 @@
       </c>
       <c r="E531" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12865,7 +13139,7 @@
       </c>
       <c r="E532" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12888,7 +13162,7 @@
       </c>
       <c r="E533" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12911,7 +13185,7 @@
       </c>
       <c r="E534" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12934,7 +13208,7 @@
       </c>
       <c r="E535" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12957,7 +13231,7 @@
       </c>
       <c r="E536" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12980,7 +13254,7 @@
       </c>
       <c r="E537" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13003,7 +13277,7 @@
       </c>
       <c r="E538" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13300,7 @@
       </c>
       <c r="E539" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13323,7 @@
       </c>
       <c r="E540" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13072,7 +13346,7 @@
       </c>
       <c r="E541" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13369,7 @@
       </c>
       <c r="E542" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13392,7 @@
       </c>
       <c r="E543" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13141,7 +13415,7 @@
       </c>
       <c r="E544" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13438,7 @@
       </c>
       <c r="E545" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13461,7 @@
       </c>
       <c r="E546" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13483,7 @@
         </is>
       </c>
       <c r="E547" s="9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="548">
@@ -13230,7 +13504,7 @@
         </is>
       </c>
       <c r="E548" s="9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="549">
@@ -13251,7 +13525,7 @@
         </is>
       </c>
       <c r="E549" s="9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550">
@@ -13272,7 +13546,7 @@
         </is>
       </c>
       <c r="E550" s="9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="551">
@@ -13293,7 +13567,7 @@
         </is>
       </c>
       <c r="E551" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -13313,10 +13587,8 @@
           <t>2,75</t>
         </is>
       </c>
-      <c r="E552" s="9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="E552" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="553">
@@ -13336,10 +13608,8 @@
           <t>2,75</t>
         </is>
       </c>
-      <c r="E553" s="9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E553" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="554">
@@ -13359,10 +13629,8 @@
           <t>2,75</t>
         </is>
       </c>
-      <c r="E554" s="9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E554" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="555">
@@ -13382,10 +13650,8 @@
           <t>2,75</t>
         </is>
       </c>
-      <c r="E555" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E555" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="556">
@@ -13406,7 +13672,7 @@
         </is>
       </c>
       <c r="E556" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557">
@@ -13426,10 +13692,8 @@
           <t>2,75</t>
         </is>
       </c>
-      <c r="E557" s="9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E557" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="558">
@@ -13450,7 +13714,7 @@
         </is>
       </c>
       <c r="E558" s="9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559">
@@ -13470,10 +13734,8 @@
           <t>17,90</t>
         </is>
       </c>
-      <c r="E559" s="9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E559" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="560">
@@ -13493,10 +13755,8 @@
           <t>3,00</t>
         </is>
       </c>
-      <c r="E560" s="9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="E560" s="9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -13517,7 +13777,7 @@
         </is>
       </c>
       <c r="E561" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562">
